--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -673,6 +673,9 @@
     <t>우리家</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -700,9 +703,6 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>MBC</t>
   </si>
   <si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1175,6 +1178,12 @@
       <c r="F2" t="s">
         <v>168</v>
       </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1196,10 +1205,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1222,10 +1231,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1248,7 +1257,7 @@
         <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
         <v>231</v>
@@ -1274,7 +1283,7 @@
         <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
         <v>231</v>
@@ -1300,7 +1309,7 @@
         <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
         <v>231</v>
@@ -1326,10 +1335,10 @@
         <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1352,7 +1361,7 @@
         <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
         <v>231</v>
@@ -1378,7 +1387,7 @@
         <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>231</v>
@@ -1404,10 +1413,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1430,7 +1439,7 @@
         <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
         <v>231</v>
@@ -1456,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
         <v>231</v>
@@ -1482,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>231</v>
@@ -1508,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
         <v>231</v>
@@ -1534,7 +1543,7 @@
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H16" t="s">
         <v>231</v>
@@ -1559,6 +1568,12 @@
       <c r="F17" t="s">
         <v>168</v>
       </c>
+      <c r="G17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -1606,7 +1621,7 @@
         <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H19" t="s">
         <v>231</v>
@@ -1658,10 +1673,10 @@
         <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1684,7 +1699,7 @@
         <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" t="s">
         <v>231</v>
@@ -1736,7 +1751,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H24" t="s">
         <v>231</v>
@@ -1788,7 +1803,7 @@
         <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s">
         <v>231</v>
@@ -1813,6 +1828,12 @@
       <c r="F27" t="s">
         <v>168</v>
       </c>
+      <c r="G27" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
@@ -1834,7 +1855,7 @@
         <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>231</v>
@@ -1886,7 +1907,7 @@
         <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
         <v>231</v>
@@ -1912,10 +1933,10 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1938,7 +1959,7 @@
         <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>231</v>
@@ -1964,7 +1985,7 @@
         <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>231</v>
@@ -1990,7 +2011,7 @@
         <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" t="s">
         <v>231</v>
@@ -2016,7 +2037,7 @@
         <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
         <v>231</v>
@@ -2042,7 +2063,7 @@
         <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
         <v>231</v>
@@ -2094,10 +2115,10 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2146,10 +2167,10 @@
         <v>179</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2302,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2535,6 +2556,12 @@
       <c r="F55" t="s">
         <v>168</v>
       </c>
+      <c r="G55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
@@ -2634,10 +2661,10 @@
         <v>190</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2842,10 +2869,10 @@
         <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3024,7 +3051,7 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H74" t="s">
         <v>231</v>
@@ -3127,6 +3154,12 @@
       <c r="F78" t="s">
         <v>168</v>
       </c>
+      <c r="G78" t="s">
+        <v>219</v>
+      </c>
+      <c r="H78" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3174,10 +3207,10 @@
         <v>204</v>
       </c>
       <c r="G80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3277,6 +3310,12 @@
       <c r="F84" t="s">
         <v>208</v>
       </c>
+      <c r="G84" t="s">
+        <v>248</v>
+      </c>
+      <c r="H84" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
@@ -3298,10 +3337,10 @@
         <v>209</v>
       </c>
       <c r="G85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3324,7 +3363,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H86" t="s">
         <v>231</v>
@@ -3350,7 +3389,7 @@
         <v>210</v>
       </c>
       <c r="G87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H87" t="s">
         <v>231</v>
@@ -3401,6 +3440,12 @@
       <c r="F89" t="s">
         <v>97</v>
       </c>
+      <c r="G89" t="s">
+        <v>232</v>
+      </c>
+      <c r="H89" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3422,10 +3467,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3474,7 +3519,7 @@
         <v>212</v>
       </c>
       <c r="G92" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H92" t="s">
         <v>231</v>
@@ -3525,6 +3570,12 @@
       <c r="F94" t="s">
         <v>214</v>
       </c>
+      <c r="G94" t="s">
+        <v>248</v>
+      </c>
+      <c r="H94" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
@@ -3572,10 +3623,10 @@
         <v>216</v>
       </c>
       <c r="G96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3598,7 +3649,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H97" t="s">
         <v>231</v>
@@ -3624,7 +3675,7 @@
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H98" t="s">
         <v>231</v>
@@ -3650,7 +3701,7 @@
         <v>218</v>
       </c>
       <c r="G99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3702,7 +3753,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-07</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220507_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="251">
   <si>
     <t>사이트</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -2245,7 +2242,7 @@
         <v>182</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
         <v>231</v>
@@ -2271,7 +2268,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
         <v>231</v>
@@ -2297,10 +2294,10 @@
         <v>183</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2349,7 +2346,7 @@
         <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
         <v>231</v>
@@ -2375,7 +2372,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H48" t="s">
         <v>231</v>
@@ -2401,7 +2398,7 @@
         <v>185</v>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H49" t="s">
         <v>231</v>
@@ -2479,7 +2476,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
         <v>231</v>
@@ -2531,7 +2528,7 @@
         <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
         <v>231</v>
@@ -2609,10 +2606,10 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2713,7 +2710,7 @@
         <v>192</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
         <v>231</v>
@@ -2739,7 +2736,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H62" t="s">
         <v>231</v>
@@ -2895,7 +2892,7 @@
         <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
         <v>231</v>
@@ -2973,10 +2970,10 @@
         <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2999,7 +2996,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
         <v>231</v>
@@ -3025,7 +3022,7 @@
         <v>200</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
         <v>231</v>
@@ -3103,7 +3100,7 @@
         <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
         <v>231</v>
@@ -3129,7 +3126,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
         <v>231</v>
@@ -3285,7 +3282,7 @@
         <v>207</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
         <v>231</v>
@@ -3311,7 +3308,7 @@
         <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H84" t="s">
         <v>231</v>
@@ -3363,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H86" t="s">
         <v>231</v>
@@ -3415,7 +3412,7 @@
         <v>179</v>
       </c>
       <c r="G88" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H88" t="s">
         <v>231</v>
@@ -3545,10 +3542,10 @@
         <v>213</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3571,7 +3568,7 @@
         <v>214</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H94" t="s">
         <v>231</v>
@@ -3597,7 +3594,7 @@
         <v>215</v>
       </c>
       <c r="G95" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
         <v>231</v>
@@ -3675,7 +3672,7 @@
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H98" t="s">
         <v>231</v>
@@ -3701,7 +3698,7 @@
         <v>218</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3753,7 +3750,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>
